--- a/file/Update_Big_Fish_Logic.xlsx
+++ b/file/Update_Big_Fish_Logic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunr01\Desktop\Pricing Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunr01\Desktop\Pricing Simulator\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E8A6B-8D72-4EAE-BC3E-110EADB7316C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8508C-DE7B-4C49-9F06-678CE321E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A522DB7-FC8B-479C-8B3B-2B8DECE91DA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{1A522DB7-FC8B-479C-8B3B-2B8DECE91DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="tiger_ds_top20%" sheetId="10" r:id="rId1"/>
@@ -1102,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:G1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A1089" workbookViewId="0">
+      <selection sqref="A1:G1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27700,8 +27700,8 @@
   </sheetPr>
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32075,7 +32075,7 @@
   <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35366,8 +35366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8CA29-0D20-4D29-89AC-08AAAC8C1CE7}">
   <dimension ref="A1:G992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
+      <selection activeCell="C984" sqref="C984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/file/Update_Big_Fish_Logic.xlsx
+++ b/file/Update_Big_Fish_Logic.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunr01\Desktop\Pricing Simulator\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunr01\Desktop\Streamlit_Volume_Prediction_Big_Fish\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8508C-DE7B-4C49-9F06-678CE321E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586F8F79-F384-4D77-A99D-BBC24BBCF660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{1A522DB7-FC8B-479C-8B3B-2B8DECE91DA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A522DB7-FC8B-479C-8B3B-2B8DECE91DA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="tiger_ds_top20%" sheetId="10" r:id="rId1"/>
-    <sheet name="tiger_whs_top20%" sheetId="9" r:id="rId2"/>
-    <sheet name="abc_whs_top20%" sheetId="6" r:id="rId3"/>
-    <sheet name="abc_ds_top20%" sheetId="4" r:id="rId4"/>
+    <sheet name="a_ds_top20%" sheetId="10" r:id="rId1"/>
+    <sheet name="a_whs_top20%" sheetId="9" r:id="rId2"/>
+    <sheet name="b_whs_top20%" sheetId="6" r:id="rId3"/>
+    <sheet name="b_ds_top20%" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1102,7 +1102,7 @@
   </sheetPr>
   <dimension ref="A1:G1107"/>
   <sheetViews>
-    <sheetView topLeftCell="A1089" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
       <selection sqref="A1:G1107"/>
     </sheetView>
   </sheetViews>
@@ -35366,7 +35366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8CA29-0D20-4D29-89AC-08AAAC8C1CE7}">
   <dimension ref="A1:G992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
+    <sheetView topLeftCell="A974" workbookViewId="0">
       <selection activeCell="C984" sqref="C984"/>
     </sheetView>
   </sheetViews>
